--- a/classfiers/mega/decisionTree/nearmiss/mega-decisionTree-nearmiss-results.xlsx
+++ b/classfiers/mega/decisionTree/nearmiss/mega-decisionTree-nearmiss-results.xlsx
@@ -470,13 +470,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9761904761904763</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9767441860465116</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.92</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.9534883720930233</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9484536082474226</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9663120567375886</v>
+        <v>0.9653805496828752</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.975609756097561</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="C4" t="n">
-        <v>0.851063829787234</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9090909090909092</v>
+        <v>0.9156626506024097</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9151152482269502</v>
+        <v>0.9201902748414376</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8727272727272727</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E5" t="n">
-        <v>0.851063829787234</v>
+        <v>0.8720930232558139</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7848101265822784</v>
+        <v>0.8974358974358974</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8854166666666667</v>
+        <v>0.9069767441860466</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9339606608969315</v>
+        <v>0.9501098901098901</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8951241134751772</v>
+        <v>0.9169133192389006</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9030163833295767</v>
+        <v>0.9285767590941226</v>
       </c>
       <c r="E7" t="n">
-        <v>0.923581560283688</v>
+        <v>0.928276955602537</v>
       </c>
     </row>
   </sheetData>
